--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -47,27 +47,61 @@
   </si>
   <si>
     <t>6 * 6 = ?</t>
+  </si>
+  <si>
+    <t>2023-10-07 22:45:32 13_1_6699561</t>
+  </si>
+  <si>
+    <t>sin(pi/2) = ?</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2023-10-07 22:47:10 11_1_5758573</t>
+  </si>
+  <si>
+    <t>sin(pi) = ?</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2023-10-07 22:52:22 10_1_4201451</t>
+  </si>
+  <si>
+    <t>sin(0) = ?</t>
+  </si>
+  <si>
+    <t>2023-10-07 22:58:31 10_1_8753070</t>
+  </si>
+  <si>
+    <t>cos(0) = ?</t>
+  </si>
+  <si>
+    <t>2023-10-07 23:00:44 17_1_1723464</t>
+  </si>
+  <si>
+    <t>1 + 1 + 1 + 1 = ?</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2023-10-07 23:04:44 9_1_6862335</t>
+  </si>
+  <si>
+    <t>8 / 4 = ?</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="16">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -131,10 +165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -151,69 +185,135 @@
       </c>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1">
+        <v>963</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1">
+        <v>1598</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1">
+        <v>2354</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1">
+        <v>2165688</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1">
+        <v>61232</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1">
+        <v>9874512</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7" s="1">
         <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="9">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="41">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="41">
+  <numFmts count="43">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,42 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="43">
+  <numFmts count="78">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -95,13 +95,58 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>2023-10-15 22:02:51 5_1_8774001</t>
+  </si>
+  <si>
+    <t>2+2+2</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="78">
+  <numFmts count="114">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -241,7 +286,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C13"/>
@@ -392,6 +437,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="43">
+  <numFmts count="48">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="48">
+  <numFmts count="49">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -110,7 +110,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="114">
+  <numFmts count="115">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="49">
+  <numFmts count="53">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="53">
+  <numFmts count="54">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="54">
+  <numFmts count="55">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="55">
+  <numFmts count="56">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="56">
+  <numFmts count="67">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Math.xlsx
@@ -101,7 +101,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="67">
+  <numFmts count="70">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
